--- a/Issue Tracker.xlsx
+++ b/Issue Tracker.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="26">
   <si>
     <t>Issue No</t>
   </si>
@@ -97,6 +97,9 @@
   </si>
   <si>
     <t>Closed</t>
+  </si>
+  <si>
+    <t>test</t>
   </si>
 </sst>
 </file>
@@ -469,7 +472,7 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -525,6 +528,9 @@
       </c>
       <c r="F2" s="2" t="s">
         <v>23</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="165">

--- a/Issue Tracker.xlsx
+++ b/Issue Tracker.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="30" windowWidth="21075" windowHeight="8010"/>
+    <workbookView xWindow="120" yWindow="30" windowWidth="20640" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="MYSQL QUERY CHANGES" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="30">
   <si>
     <t>Issue No</t>
   </si>
@@ -100,6 +100,18 @@
   </si>
   <si>
     <t>test</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Query</t>
+  </si>
+  <si>
+    <t>ALTER TABLE `accounts` CHANGE `display_picture` `display_picture` VARCHAR(45) CHARACTER SET latin1 COLLATE latin1_swedish_ci NULL DEFAULT 'img.jpg';</t>
+  </si>
+  <si>
+    <t>ALTER TABLE `customers` CHANGE `display_picture` `display_picture` VARCHAR(45) CHARACTER SET latin1 COLLATE latin1_swedish_ci NULL DEFAULT 'img.jpg';</t>
   </si>
 </sst>
 </file>
@@ -164,7 +176,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -175,6 +187,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -471,7 +484,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
@@ -601,12 +614,46 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="141.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="4">
+        <v>46174</v>
+      </c>
+      <c r="B2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="4">
+        <v>46174</v>
+      </c>
+      <c r="B3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/Issue Tracker.xlsx
+++ b/Issue Tracker.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="30" windowWidth="20640" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="120" yWindow="30" windowWidth="20640" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="MYSQL QUERY CHANGES" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="48">
   <si>
     <t>Issue No</t>
   </si>
@@ -112,6 +112,60 @@
   </si>
   <si>
     <t>ALTER TABLE `customers` CHANGE `display_picture` `display_picture` VARCHAR(45) CHARACTER SET latin1 COLLATE latin1_swedish_ci NULL DEFAULT 'img.jpg';</t>
+  </si>
+  <si>
+    <t>PAYMENTS</t>
+  </si>
+  <si>
+    <t>PaymentID</t>
+  </si>
+  <si>
+    <t>LoanID</t>
+  </si>
+  <si>
+    <t>DueDAte</t>
+  </si>
+  <si>
+    <t>DueAmount</t>
+  </si>
+  <si>
+    <t>AmountPaid</t>
+  </si>
+  <si>
+    <t>PaymentBalance</t>
+  </si>
+  <si>
+    <t>16-24-0016</t>
+  </si>
+  <si>
+    <t>LOAN</t>
+  </si>
+  <si>
+    <t>Date of Release</t>
+  </si>
+  <si>
+    <t>Amount Loan</t>
+  </si>
+  <si>
+    <t>Interest Rate</t>
+  </si>
+  <si>
+    <t>Total Interest Amount</t>
+  </si>
+  <si>
+    <t>Balance</t>
+  </si>
+  <si>
+    <t>Number of Payments</t>
+  </si>
+  <si>
+    <t>Total Balance</t>
+  </si>
+  <si>
+    <t>RunningBalance</t>
+  </si>
+  <si>
+    <t>ActualPaidDate</t>
   </si>
 </sst>
 </file>
@@ -135,7 +189,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -145,6 +199,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="3" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -176,7 +236,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -188,6 +248,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="4" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -616,8 +679,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -660,12 +723,286 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A2:Q10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="12.140625" customWidth="1"/>
+    <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12" customWidth="1"/>
+    <col min="4" max="4" width="13.140625" style="6" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" style="6" customWidth="1"/>
+    <col min="7" max="7" width="17" style="6" customWidth="1"/>
+    <col min="8" max="8" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="20" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="20.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:17">
+      <c r="A2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
+      <c r="A4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="K4" t="s">
+        <v>32</v>
+      </c>
+      <c r="L4" t="s">
+        <v>39</v>
+      </c>
+      <c r="M4" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="N4" t="s">
+        <v>41</v>
+      </c>
+      <c r="O4" t="s">
+        <v>44</v>
+      </c>
+      <c r="P4" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" s="5">
+        <v>42566</v>
+      </c>
+      <c r="D5" s="6">
+        <v>177</v>
+      </c>
+      <c r="E5" s="5">
+        <v>42566</v>
+      </c>
+      <c r="F5" s="6">
+        <v>182</v>
+      </c>
+      <c r="G5" s="6">
+        <v>-5</v>
+      </c>
+      <c r="H5" s="6">
+        <f>L9-F5</f>
+        <v>878</v>
+      </c>
+      <c r="K5" t="s">
+        <v>37</v>
+      </c>
+      <c r="L5" s="5">
+        <v>42551</v>
+      </c>
+      <c r="M5" s="7">
+        <v>1000</v>
+      </c>
+      <c r="N5">
+        <v>2</v>
+      </c>
+      <c r="O5">
+        <v>6</v>
+      </c>
+      <c r="P5" s="7">
+        <f>(((O5/2)*N5)/100)*M5</f>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
+      <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" s="5">
+        <v>42582</v>
+      </c>
+      <c r="D6" s="6">
+        <v>172</v>
+      </c>
+      <c r="E6" s="5">
+        <v>42582</v>
+      </c>
+      <c r="F6" s="6">
+        <v>170</v>
+      </c>
+      <c r="G6" s="6">
+        <v>2</v>
+      </c>
+      <c r="H6" s="6">
+        <f>H5-F6</f>
+        <v>708</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
+      <c r="A7">
+        <v>3</v>
+      </c>
+      <c r="B7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" s="5">
+        <v>42597</v>
+      </c>
+      <c r="D7" s="6">
+        <v>179</v>
+      </c>
+      <c r="E7" s="5">
+        <v>42597</v>
+      </c>
+      <c r="F7" s="6">
+        <v>170</v>
+      </c>
+      <c r="G7" s="6">
+        <v>9</v>
+      </c>
+      <c r="H7" s="6">
+        <f>H6-F7</f>
+        <v>538</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
+      <c r="A8">
+        <v>4</v>
+      </c>
+      <c r="B8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" s="5">
+        <v>42613</v>
+      </c>
+      <c r="D8" s="6">
+        <v>186</v>
+      </c>
+      <c r="E8" s="5">
+        <v>42613</v>
+      </c>
+      <c r="F8" s="6">
+        <v>186</v>
+      </c>
+      <c r="G8" s="6">
+        <v>0</v>
+      </c>
+      <c r="H8" s="6">
+        <f t="shared" ref="H8:H10" si="0">H7-F8</f>
+        <v>352</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
+      <c r="A9">
+        <v>5</v>
+      </c>
+      <c r="B9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" s="5">
+        <v>42628</v>
+      </c>
+      <c r="D9" s="6">
+        <v>177</v>
+      </c>
+      <c r="E9" s="5">
+        <v>42628</v>
+      </c>
+      <c r="F9" s="6">
+        <v>177</v>
+      </c>
+      <c r="G9" s="6">
+        <v>0</v>
+      </c>
+      <c r="H9" s="6">
+        <f t="shared" si="0"/>
+        <v>175</v>
+      </c>
+      <c r="K9" t="s">
+        <v>45</v>
+      </c>
+      <c r="L9" s="6">
+        <f>M5+P5</f>
+        <v>1060</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
+      <c r="A10">
+        <v>6</v>
+      </c>
+      <c r="B10" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" s="5">
+        <v>42643</v>
+      </c>
+      <c r="D10" s="6">
+        <v>175</v>
+      </c>
+      <c r="E10" s="5">
+        <v>42643</v>
+      </c>
+      <c r="F10" s="6">
+        <v>175</v>
+      </c>
+      <c r="G10" s="6">
+        <v>0</v>
+      </c>
+      <c r="H10" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K10" t="s">
+        <v>34</v>
+      </c>
+      <c r="L10">
+        <f>(M5+P5)/O5</f>
+        <v>176.66666666666666</v>
+      </c>
+      <c r="M10" s="6">
+        <v>177</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Issue Tracker.xlsx
+++ b/Issue Tracker.xlsx
@@ -172,7 +172,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -183,6 +183,21 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="22"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -236,7 +251,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -251,6 +266,8 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="4" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -723,10 +740,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:Q10"/>
+  <dimension ref="A2:Q20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -741,7 +758,7 @@
     <col min="8" max="8" width="15.28515625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="15" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.28515625" style="6" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="20" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="20.7109375" style="6" bestFit="1" customWidth="1"/>
@@ -964,7 +981,7 @@
         <v>1060</v>
       </c>
     </row>
-    <row r="10" spans="1:17">
+    <row r="10" spans="1:17" ht="28.5">
       <c r="A10">
         <v>6</v>
       </c>
@@ -990,15 +1007,51 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K10" t="s">
+      <c r="K10" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="L10">
+      <c r="L10" s="8">
         <f>(M5+P5)/O5</f>
         <v>176.66666666666666</v>
       </c>
-      <c r="M10" s="6">
+      <c r="M10" s="9">
         <v>177</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
+      <c r="M13" s="6">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
+      <c r="M14" s="6">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
+      <c r="M15" s="6">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
+      <c r="M16" s="6">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="17" spans="13:13">
+      <c r="M17" s="6">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="18" spans="13:13">
+      <c r="M18" s="6">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="20" spans="13:13">
+      <c r="M20" s="6">
+        <f>SUM(M13:M18)</f>
+        <v>1060</v>
       </c>
     </row>
   </sheetData>
